--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F530"/>
+  <dimension ref="A1:F531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11051,6 +11051,26 @@
         <v>9.4</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B531" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C531" t="n">
+        <v>9.090999999999999</v>
+      </c>
+      <c r="D531" t="n">
+        <v>9.172000000000001</v>
+      </c>
+      <c r="E531" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="F531" t="n">
+        <v>9.635999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F531"/>
+  <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11071,6 +11071,26 @@
         <v>9.635999999999999</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B532" t="n">
+        <v>8.411</v>
+      </c>
+      <c r="C532" t="n">
+        <v>9.015000000000001</v>
+      </c>
+      <c r="D532" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E532" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F532" t="n">
+        <v>9.603999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:F534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11091,6 +11091,46 @@
         <v>9.603999999999999</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="B533" t="n">
+        <v>8.411</v>
+      </c>
+      <c r="C533" t="n">
+        <v>9.015000000000001</v>
+      </c>
+      <c r="D533" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E533" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F533" t="n">
+        <v>9.603999999999999</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B534" t="n">
+        <v>8.452999999999999</v>
+      </c>
+      <c r="C534" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D534" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E534" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F534" t="n">
+        <v>9.675000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F534"/>
+  <dimension ref="A1:F535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11131,6 +11131,26 @@
         <v>9.675000000000001</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B535" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C535" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D535" t="n">
+        <v>9.031000000000001</v>
+      </c>
+      <c r="E535" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="F535" t="n">
+        <v>9.510999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11151,6 +11151,26 @@
         <v>9.510999999999999</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B536" t="n">
+        <v>8.279</v>
+      </c>
+      <c r="C536" t="n">
+        <v>8.882</v>
+      </c>
+      <c r="D536" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E536" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F536" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F536"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11171,6 +11171,26 @@
         <v>9.57</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B537" t="n">
+        <v>8.127000000000001</v>
+      </c>
+      <c r="C537" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D537" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="E537" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F537" t="n">
+        <v>9.366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F537"/>
+  <dimension ref="A1:F538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11191,6 +11191,26 @@
         <v>9.366</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B538" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C538" t="n">
+        <v>8.949</v>
+      </c>
+      <c r="D538" t="n">
+        <v>9</v>
+      </c>
+      <c r="E538" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F538" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F538"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11211,6 +11211,66 @@
         <v>9.539999999999999</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B539" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C539" t="n">
+        <v>8.949</v>
+      </c>
+      <c r="D539" t="n">
+        <v>9</v>
+      </c>
+      <c r="E539" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F539" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B540" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C540" t="n">
+        <v>8.949</v>
+      </c>
+      <c r="D540" t="n">
+        <v>9</v>
+      </c>
+      <c r="E540" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F540" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B541" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="C541" t="n">
+        <v>9.141</v>
+      </c>
+      <c r="D541" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="E541" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="F541" t="n">
+        <v>9.765000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F541"/>
+  <dimension ref="A1:F542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11271,6 +11271,26 @@
         <v>9.765000000000001</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B542" t="n">
+        <v>8.632</v>
+      </c>
+      <c r="C542" t="n">
+        <v>9.141</v>
+      </c>
+      <c r="D542" t="n">
+        <v>9.358000000000001</v>
+      </c>
+      <c r="E542" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F542" t="n">
+        <v>9.775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F542"/>
+  <dimension ref="A1:F543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11291,6 +11291,26 @@
         <v>9.775</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B543" t="n">
+        <v>8.715</v>
+      </c>
+      <c r="C543" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D543" t="n">
+        <v>9.419</v>
+      </c>
+      <c r="E543" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F543" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F543"/>
+  <dimension ref="A1:F544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11311,6 +11311,26 @@
         <v>9.800000000000001</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B544" t="n">
+        <v>8.744999999999999</v>
+      </c>
+      <c r="C544" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D544" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E544" t="n">
+        <v>9.762</v>
+      </c>
+      <c r="F544" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F544"/>
+  <dimension ref="A1:F545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11331,6 +11331,26 @@
         <v>9.76</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B545" t="n">
+        <v>8.680999999999999</v>
+      </c>
+      <c r="C545" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D545" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E545" t="n">
+        <v>9.705</v>
+      </c>
+      <c r="F545" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F545"/>
+  <dimension ref="A1:F547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11351,6 +11351,46 @@
         <v>9.74</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B546" t="n">
+        <v>8.680999999999999</v>
+      </c>
+      <c r="C546" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D546" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E546" t="n">
+        <v>9.705</v>
+      </c>
+      <c r="F546" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B547" t="n">
+        <v>8.797000000000001</v>
+      </c>
+      <c r="C547" t="n">
+        <v>9.457000000000001</v>
+      </c>
+      <c r="D547" t="n">
+        <v>9.528</v>
+      </c>
+      <c r="E547" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F547" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F547"/>
+  <dimension ref="A1:F548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11391,6 +11391,26 @@
         <v>9.77</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B548" t="n">
+        <v>8.765000000000001</v>
+      </c>
+      <c r="C548" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D548" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E548" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F548" t="n">
+        <v>9.785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F548"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11411,6 +11411,26 @@
         <v>9.785</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B549" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="C549" t="n">
+        <v>9.377000000000001</v>
+      </c>
+      <c r="D549" t="n">
+        <v>9.484999999999999</v>
+      </c>
+      <c r="E549" t="n">
+        <v>9.695</v>
+      </c>
+      <c r="F549" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F549"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11431,6 +11431,26 @@
         <v>9.779999999999999</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B550" t="n">
+        <v>8.698</v>
+      </c>
+      <c r="C550" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D550" t="n">
+        <v>9.465</v>
+      </c>
+      <c r="E550" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="F550" t="n">
+        <v>9.747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:F551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11451,6 +11451,26 @@
         <v>9.747</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B551" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="C551" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D551" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E551" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F551" t="n">
+        <v>9.792999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F551"/>
+  <dimension ref="A1:F553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11471,6 +11471,46 @@
         <v>9.792999999999999</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B552" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="C552" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D552" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E552" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F552" t="n">
+        <v>9.792999999999999</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B553" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="C553" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D553" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E553" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F553" t="n">
+        <v>9.792999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11511,6 +11511,26 @@
         <v>9.792999999999999</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B554" t="n">
+        <v>8.872999999999999</v>
+      </c>
+      <c r="C554" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="D554" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="E554" t="n">
+        <v>9.757</v>
+      </c>
+      <c r="F554" t="n">
+        <v>9.865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F554"/>
+  <dimension ref="A1:F555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11531,6 +11531,26 @@
         <v>9.865</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B555" t="n">
+        <v>9.048999999999999</v>
+      </c>
+      <c r="C555" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D555" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E555" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F555" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F555"/>
+  <dimension ref="A1:F556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11551,6 +11551,26 @@
         <v>10.06</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B556" t="n">
+        <v>9.135999999999999</v>
+      </c>
+      <c r="C556" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D556" t="n">
+        <v>9.856</v>
+      </c>
+      <c r="E556" t="n">
+        <v>10</v>
+      </c>
+      <c r="F556" t="n">
+        <v>10.197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F556"/>
+  <dimension ref="A1:F557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11571,6 +11571,26 @@
         <v>10.197</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B557" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="C557" t="n">
+        <v>9.972</v>
+      </c>
+      <c r="D557" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E557" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F557" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F557"/>
+  <dimension ref="A1:F559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11591,6 +11591,46 @@
         <v>10.29</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B558" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="C558" t="n">
+        <v>9.972</v>
+      </c>
+      <c r="D558" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E558" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F558" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B559" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C559" t="n">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="D559" t="n">
+        <v>9.951000000000001</v>
+      </c>
+      <c r="E559" t="n">
+        <v>10.102</v>
+      </c>
+      <c r="F559" t="n">
+        <v>10.174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F559"/>
+  <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11631,6 +11631,26 @@
         <v>10.174</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B560" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C560" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D560" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E560" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F560" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F560"/>
+  <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11651,6 +11651,26 @@
         <v>9.81</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B561" t="n">
+        <v>8.782999999999999</v>
+      </c>
+      <c r="C561" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D561" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="E561" t="n">
+        <v>9.766</v>
+      </c>
+      <c r="F561" t="n">
+        <v>9.847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F561"/>
+  <dimension ref="A1:F562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11671,6 +11671,26 @@
         <v>9.847</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B562" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="C562" t="n">
+        <v>9.234999999999999</v>
+      </c>
+      <c r="D562" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E562" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F562" t="n">
+        <v>9.923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F562"/>
+  <dimension ref="A1:F563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11691,6 +11691,26 @@
         <v>9.923</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B563" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C563" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D563" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E563" t="n">
+        <v>9.567</v>
+      </c>
+      <c r="F563" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F563"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11711,6 +11711,46 @@
         <v>9.76</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B564" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C564" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D564" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E564" t="n">
+        <v>9.567</v>
+      </c>
+      <c r="F564" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B565" t="n">
+        <v>8</v>
+      </c>
+      <c r="C565" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D565" t="n">
+        <v>8.741</v>
+      </c>
+      <c r="E565" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F565" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F565"/>
+  <dimension ref="A1:F566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11751,6 +11751,26 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B566" t="n">
+        <v>8.266999999999999</v>
+      </c>
+      <c r="C566" t="n">
+        <v>8.849</v>
+      </c>
+      <c r="D566" t="n">
+        <v>8.977</v>
+      </c>
+      <c r="E566" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F566" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:F567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11771,6 +11771,26 @@
         <v>9.56</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B567" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C567" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D567" t="n">
+        <v>8.768000000000001</v>
+      </c>
+      <c r="E567" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F567" t="n">
+        <v>9.422000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F567"/>
+  <dimension ref="A1:F568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11791,6 +11791,26 @@
         <v>9.422000000000001</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B568" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C568" t="n">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="D568" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E568" t="n">
+        <v>9.332000000000001</v>
+      </c>
+      <c r="F568" t="n">
+        <v>9.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F568"/>
+  <dimension ref="A1:F569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11811,6 +11811,26 @@
         <v>9.52</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B569" t="n">
+        <v>8.507</v>
+      </c>
+      <c r="C569" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="D569" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="E569" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F569" t="n">
+        <v>9.831</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F569"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11831,6 +11831,46 @@
         <v>9.831</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B570" t="n">
+        <v>8.507</v>
+      </c>
+      <c r="C570" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="D570" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="E570" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F570" t="n">
+        <v>9.831</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B571" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="C571" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D571" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E571" t="n">
+        <v>9.715</v>
+      </c>
+      <c r="F571" t="n">
+        <v>9.917</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11871,6 +11871,26 @@
         <v>9.917</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B572" t="n">
+        <v>8.506</v>
+      </c>
+      <c r="C572" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D572" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E572" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F572" t="n">
+        <v>9.685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F572"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11891,6 +11891,26 @@
         <v>9.685</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B573" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="C573" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D573" t="n">
+        <v>9.279</v>
+      </c>
+      <c r="E573" t="n">
+        <v>9.558999999999999</v>
+      </c>
+      <c r="F573" t="n">
+        <v>9.781000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F573"/>
+  <dimension ref="A1:F574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11911,6 +11911,26 @@
         <v>9.781000000000001</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B574" t="n">
+        <v>10.179</v>
+      </c>
+      <c r="C574" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D574" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E574" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="F574" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Colombia.xlsx
+++ b/Bonds_Colombia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F574"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11913,21 +11913,641 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B574" t="n">
+        <v>8.856</v>
+      </c>
+      <c r="C574" t="n">
+        <v>9.654</v>
+      </c>
+      <c r="D574" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="E574" t="n">
+        <v>10.259</v>
+      </c>
+      <c r="F574" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B575" t="n">
+        <v>9.010999999999999</v>
+      </c>
+      <c r="C575" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D575" t="n">
+        <v>10.169</v>
+      </c>
+      <c r="E575" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="F575" t="n">
+        <v>10.578</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B576" t="n">
+        <v>9.228999999999999</v>
+      </c>
+      <c r="C576" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D576" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E576" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F576" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B577" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C577" t="n">
+        <v>9.884</v>
+      </c>
+      <c r="D577" t="n">
+        <v>10.122</v>
+      </c>
+      <c r="E577" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F577" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B578" t="n">
+        <v>9.009</v>
+      </c>
+      <c r="C578" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D578" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="E578" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F578" t="n">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B579" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C579" t="n">
+        <v>10</v>
+      </c>
+      <c r="D579" t="n">
+        <v>10.236</v>
+      </c>
+      <c r="E579" t="n">
+        <v>10.615</v>
+      </c>
+      <c r="F579" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B580" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C580" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="D580" t="n">
+        <v>10.439</v>
+      </c>
+      <c r="E580" t="n">
+        <v>10.756</v>
+      </c>
+      <c r="F580" t="n">
+        <v>10.955</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B581" t="n">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="C581" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D581" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E581" t="n">
+        <v>10.919</v>
+      </c>
+      <c r="F581" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B582" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C582" t="n">
+        <v>10.316</v>
+      </c>
+      <c r="D582" t="n">
+        <v>10.601</v>
+      </c>
+      <c r="E582" t="n">
+        <v>11</v>
+      </c>
+      <c r="F582" t="n">
+        <v>11.245</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B583" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C583" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D583" t="n">
+        <v>10.657</v>
+      </c>
+      <c r="E583" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="F583" t="n">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B584" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C584" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D584" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E584" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F584" t="n">
+        <v>11.365</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B585" t="n">
+        <v>9.673999999999999</v>
+      </c>
+      <c r="C585" t="n">
+        <v>10.475</v>
+      </c>
+      <c r="D585" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E585" t="n">
+        <v>11.381</v>
+      </c>
+      <c r="F585" t="n">
+        <v>11.531</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B586" t="n">
+        <v>9.848000000000001</v>
+      </c>
+      <c r="C586" t="n">
+        <v>10.562</v>
+      </c>
+      <c r="D586" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E586" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F586" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B587" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="C587" t="n">
+        <v>10.695</v>
+      </c>
+      <c r="D587" t="n">
+        <v>11.007</v>
+      </c>
+      <c r="E587" t="n">
+        <v>11.801</v>
+      </c>
+      <c r="F587" t="n">
+        <v>12.085</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B588" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C588" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D588" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E588" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F588" t="n">
+        <v>11.962</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B589" t="n">
+        <v>9.955</v>
+      </c>
+      <c r="C589" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D589" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E589" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F589" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B590" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C590" t="n">
+        <v>10.358</v>
+      </c>
+      <c r="D590" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="E590" t="n">
+        <v>11.321</v>
+      </c>
+      <c r="F590" t="n">
+        <v>11.699</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B591" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="C591" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D591" t="n">
+        <v>10.652</v>
+      </c>
+      <c r="E591" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F591" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B592" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C592" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D592" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="E592" t="n">
+        <v>11.309</v>
+      </c>
+      <c r="F592" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B593" t="n">
+        <v>9.651999999999999</v>
+      </c>
+      <c r="C593" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D593" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E593" t="n">
+        <v>11.105</v>
+      </c>
+      <c r="F593" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B594" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C594" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D594" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E594" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F594" t="n">
+        <v>11.262</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B595" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="C595" t="n">
+        <v>10.544</v>
+      </c>
+      <c r="D595" t="n">
+        <v>10.733</v>
+      </c>
+      <c r="E595" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F595" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B596" t="n">
+        <v>9.478</v>
+      </c>
+      <c r="C596" t="n">
+        <v>10.151</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E596" t="n">
+        <v>10.641</v>
+      </c>
+      <c r="F596" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B597" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C597" t="n">
+        <v>10.171</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E597" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F597" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B598" t="n">
+        <v>9.395</v>
+      </c>
+      <c r="C598" t="n">
+        <v>10</v>
+      </c>
+      <c r="D598" t="n">
+        <v>10.075</v>
+      </c>
+      <c r="E598" t="n">
+        <v>10.572</v>
+      </c>
+      <c r="F598" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B599" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C599" t="n">
+        <v>9.895</v>
+      </c>
+      <c r="D599" t="n">
+        <v>10.051</v>
+      </c>
+      <c r="E599" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F599" t="n">
+        <v>10.797</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B600" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C600" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D600" t="n">
+        <v>10.446</v>
+      </c>
+      <c r="E600" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="F600" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B601" t="n">
+        <v>9.862</v>
+      </c>
+      <c r="C601" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="D601" t="n">
+        <v>10.673</v>
+      </c>
+      <c r="E601" t="n">
+        <v>11.226</v>
+      </c>
+      <c r="F601" t="n">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B602" t="n">
+        <v>9.999000000000001</v>
+      </c>
+      <c r="C602" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D602" t="n">
+        <v>10.887</v>
+      </c>
+      <c r="E602" t="n">
+        <v>11.355</v>
+      </c>
+      <c r="F602" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B603" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C603" t="n">
+        <v>10.761</v>
+      </c>
+      <c r="D603" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E603" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F603" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B604" t="n">
+        <v>9.951000000000001</v>
+      </c>
+      <c r="C604" t="n">
+        <v>10.707</v>
+      </c>
+      <c r="D604" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="E604" t="n">
+        <v>11.267</v>
+      </c>
+      <c r="F604" t="n">
+        <v>11.423</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
         <v>44725</v>
       </c>
-      <c r="B574" t="n">
+      <c r="B605" t="n">
         <v>10.179</v>
       </c>
-      <c r="C574" t="n">
+      <c r="C605" t="n">
         <v>10.99</v>
       </c>
-      <c r="D574" t="n">
+      <c r="D605" t="n">
         <v>11.19</v>
       </c>
-      <c r="E574" t="n">
+      <c r="E605" t="n">
         <v>11.53</v>
       </c>
-      <c r="F574" t="n">
+      <c r="F605" t="n">
         <v>11.7</v>
       </c>
     </row>
